--- a/src/main/webapp/static/file/zjTemplate.xlsx
+++ b/src/main/webapp/static/file/zjTemplate.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+  <si>
+    <t>部门在建政务信息系统调查表（审计统计表）</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -27,7 +30,6 @@
       </rPr>
       <t>序号</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -39,7 +41,6 @@
       </rPr>
       <t>单位名称</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -51,7 +52,6 @@
       </rPr>
       <t>系统名称</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -63,15 +63,12 @@
       </rPr>
       <t>基本信息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>项目建设状态</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统建设必要性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -83,11 +80,9 @@
       </rPr>
       <t>系统整合信息</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -99,7 +94,6 @@
       </rPr>
       <t>审批部门</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -111,7 +105,6 @@
       </rPr>
       <t>审批时间</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -123,7 +116,6 @@
       </rPr>
       <t>业务功能</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -135,15 +127,12 @@
       </rPr>
       <t>建设单位</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统建设预算/合同金额（万元）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>资金来源</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -155,63 +144,48 @@
       </rPr>
       <t>系统类别</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>当前建设阶段</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建设方式</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>承建单位</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同签署时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同约定完成时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>合同签署的维保到期时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>已付合同金额或比例</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统建设/立项依据</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建设预期目标</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建设项目紧迫程度</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>紧迫程度说明</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预估使用对象</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>预估使用规模（注册用户数/个)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>原计划投入使用时间</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -223,7 +197,6 @@
       </rPr>
       <t>部署位置</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -235,7 +208,6 @@
       </rPr>
       <t>涉密分类</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -247,11 +219,9 @@
       </rPr>
       <t>安全级别</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>计划接入网络类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -263,7 +233,6 @@
       </rPr>
       <t>使用范围</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -275,7 +244,6 @@
       </rPr>
       <t>是否与其它系统对接</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -287,7 +255,6 @@
       </rPr>
       <t>对接其它系统名称</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -299,19 +266,6 @@
       </rPr>
       <t>是否虚拟化部署</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>虚拟化软件名称</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -323,7 +277,6 @@
       </rPr>
       <t>数据备份</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -335,15 +288,12 @@
       </rPr>
       <t>应用容灾</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统后续计划</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>系统继续建设原因</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -355,7 +305,6 @@
       </rPr>
       <t>联系人</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -367,7 +316,6 @@
       </rPr>
       <t>联系电话</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -379,7 +327,6 @@
       </rPr>
       <t>是否有备份</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -391,11 +338,9 @@
       </rPr>
       <t>备份方式</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>备份点位置</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -412,7 +357,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -425,257 +370,336 @@
       </rPr>
       <t>）</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门在建政务信息系统调查表（审计统计表）</t>
-  </si>
-  <si>
-    <t>dwmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>companyId</t>
   </si>
   <si>
     <t>xtmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>spbm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>spsj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ywgn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jsdwmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jsdwlxr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jsdwlxdh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xtjsys</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>zjly</t>
   </si>
   <si>
     <t>xtlb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqjsjd</t>
+  </si>
+  <si>
+    <t>jsfs</t>
   </si>
   <si>
     <t>cjdwmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cjdwlxr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>cjdwlxdh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>htqssj</t>
   </si>
   <si>
     <t>htydwcsj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>htqsdwbdqsj</t>
   </si>
   <si>
     <t>jfhtje</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>xtjsyj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>jsyqmb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsxmjpcd</t>
   </si>
   <si>
     <t>jpcdsm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ygsydx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ygsygm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>yjhtrsysj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bswz</t>
+  </si>
+  <si>
+    <t>smfl</t>
+  </si>
+  <si>
+    <t>aqjb</t>
   </si>
   <si>
     <t>jhjrwllx</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>syfw</t>
+  </si>
+  <si>
+    <t>sfyqtxtdj</t>
   </si>
   <si>
     <t>djqtxtmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xnhrjmc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfxnhbs</t>
+  </si>
+  <si>
+    <t>sfybf</t>
+  </si>
+  <si>
+    <t>bffs</t>
   </si>
   <si>
     <t>bfdwz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>sjbfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>yyrz</t>
+  </si>
+  <si>
+    <t>xthxjh</t>
   </si>
   <si>
     <t>xtjxjsyy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>zjly</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqjsjd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsfs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>htqssj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>htqsdwbdqsj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>jsxmjpcd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bswz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>smfl</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>aqjb</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>syfw</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfyqtxtdj</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfxnhbs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>sfybf</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bffs</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>yyrz</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>xthxjh</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>remarks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -684,30 +708,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -717,163 +909,436 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1164,320 +1629,314 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AR6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD19"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AK12" sqref="AK12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="45" max="45" width="12.25" customWidth="1"/>
+    <col min="44" max="44" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="30" t="s">
+    <row r="1" ht="25.5" spans="1:44">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+    </row>
+    <row r="3" spans="1:44">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="W3" s="19"/>
+      <c r="X3" s="19"/>
+      <c r="Y3" s="19"/>
+      <c r="Z3" s="19"/>
+      <c r="AA3" s="19"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:44">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="U4" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="W4" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="X4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z4" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC4" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD4" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE4" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG4" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AH4" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="AI4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP4" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ4" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR4" s="29"/>
+    </row>
+    <row r="5" ht="23.25" spans="1:44">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="24"/>
+      <c r="AD5" s="24"/>
+      <c r="AE5" s="24"/>
+      <c r="AF5" s="24"/>
+      <c r="AG5" s="24"/>
+      <c r="AH5" s="27"/>
+      <c r="AI5" s="27"/>
+      <c r="AJ5" s="24"/>
+      <c r="AK5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN5" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="AO5" s="24"/>
+      <c r="AP5" s="24"/>
+      <c r="AQ5" s="24"/>
+      <c r="AR5" s="29"/>
+    </row>
+    <row r="6" spans="1:44">
+      <c r="A6" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-      <c r="Y1" s="30"/>
-      <c r="Z1" s="30"/>
-      <c r="AA1" s="30"/>
-      <c r="AB1" s="30"/>
-      <c r="AC1" s="30"/>
-      <c r="AD1" s="30"/>
-      <c r="AE1" s="30"/>
-      <c r="AF1" s="30"/>
-      <c r="AG1" s="30"/>
-      <c r="AH1" s="30"/>
-      <c r="AI1" s="30"/>
-      <c r="AJ1" s="30"/>
-      <c r="AK1" s="30"/>
-      <c r="AL1" s="30"/>
-      <c r="AM1" s="30"/>
-      <c r="AN1" s="30"/>
-      <c r="AO1" s="30"/>
-      <c r="AP1" s="30"/>
-      <c r="AQ1" s="30"/>
-      <c r="AR1" s="30"/>
-      <c r="AS1" s="30"/>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="19"/>
-      <c r="V3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="M4" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC4" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="AD4" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE4" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF4" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG4" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AI4" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK4" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL4" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ4" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="AR4" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="AS4" s="22"/>
-    </row>
-    <row r="5" spans="1:45" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="24"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="27"/>
-      <c r="AC5" s="28"/>
-      <c r="AD5" s="28"/>
-      <c r="AE5" s="28"/>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="33"/>
-      <c r="AI5" s="33"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="28"/>
-      <c r="AL5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="AN5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="AP5" s="28"/>
-      <c r="AQ5" s="28"/>
-      <c r="AR5" s="28"/>
-      <c r="AS5" s="22"/>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>49</v>
@@ -1503,229 +1962,231 @@
       <c r="I6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="AD6" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="5" t="s">
+      <c r="AE6" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="AF6" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R6" s="8" t="s">
+      <c r="AG6" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="S6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="T6" s="8" t="s">
+      <c r="AH6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="U6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="W6" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="X6" s="7" t="s">
+      <c r="AI6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="Y6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="AB6" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AJ6" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AK6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AL6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AF6" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AM6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AN6" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AI6" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AO6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AK6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AP6" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AQ6" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AN6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AR6" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="AQ6" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR6" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS6" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="42">
+    <mergeCell ref="A1:AR1"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M3:U3"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="AC3:AQ3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="O4:Q4"/>
+    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="X4:X5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AC3:AR3"/>
-    <mergeCell ref="A1:AS1"/>
-    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AC4:AC5"/>
+    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AE4:AE5"/>
     <mergeCell ref="AF4:AF5"/>
     <mergeCell ref="AG4:AG5"/>
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AK4:AK5"/>
-    <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AO4:AO5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="AS3:AS5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AE4:AE5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="M3:U3"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="AR3:AR5"/>
   </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ5">
-      <formula1>"继续建设,可以暂缓"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4">
+      <formula1>"涉密,非涉密"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4">
+      <formula1>"三级,二级,未定级"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AK4:AK5">
+      <formula1>"有,无"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
+      <formula1>"财政资金,专项资金,自筹资金"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M5">
+      <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N5">
+      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X5">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N3:N5">
-      <formula1>"自建（自有产权）,购买服务（无产权）"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC4">
+      <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
-      <formula1>"财政资金,专项资金,自筹资金"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG5">
+      <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5">
+      <formula1>"是，对接省政务信息资源共享平台,是，对接其它系统,否，无对接"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4:AJ5">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG3:AG5">
-      <formula1>"单位内部,国家垂直,覆盖省级,覆盖到市,覆盖到县,覆盖到县以下"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M5">
-      <formula1>"已招标但未开始建设,项目建设中-需求设计,项目建设中-系统开发,项目建设中-系统部署,项目建设中-系统测试,项目建设中-系统上线"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4:AM5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4:AL5">
       <formula1>"本地,异地"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH4:AH5">
-      <formula1>"是，对接省政务信息资源共享平台,是，对接其它系统,否，无对接"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4 AL4:AL5">
-      <formula1>"有,无"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4">
-      <formula1>"三级,二级,未定级"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4">
-      <formula1>"涉密,非涉密"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC4">
-      <formula1>"自建机房,省信息中心机房,运营商IDC机房"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP5">
+      <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/webapp/static/file/zjTemplate.xlsx
+++ b/src/main/webapp/static/file/zjTemplate.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
-  <si>
-    <t>部门在建政务信息系统调查表（审计统计表）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94">
+  <si>
+    <t>部门在建政务信息系统调查表</t>
   </si>
   <si>
     <r>
@@ -268,6 +268,9 @@
     </r>
   </si>
   <si>
+    <t>虚拟化软件厂商名称</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -357,7 +360,7 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <charset val="0"/>
       </rPr>
       <t>GB</t>
     </r>
@@ -378,7 +381,7 @@
     <t>companyId</t>
   </si>
   <si>
-    <t>xtmc</t>
+    <t>name</t>
   </si>
   <si>
     <t>spbm</t>
@@ -432,7 +435,7 @@
     <t>htqsdwbdqsj</t>
   </si>
   <si>
-    <t>jfhtje</t>
+    <t>yfhtje</t>
   </si>
   <si>
     <t>xtjsyj</t>
@@ -478,6 +481,9 @@
   </si>
   <si>
     <t>sfxnhbs</t>
+  </si>
+  <si>
+    <t>xnhrjcsmc</t>
   </si>
   <si>
     <t>sfybf</t>
@@ -509,13 +515,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,7 +540,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -543,8 +549,34 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -552,53 +584,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,93 +644,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="34">
@@ -732,145 +743,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,26 +909,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -949,6 +960,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -956,6 +1030,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -983,69 +1066,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1054,10 +1074,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,137 +1086,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1260,7 +1280,10 @@
     <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1276,6 +1299,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1340,6 +1366,16 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+      <color rgb="00FCD5B4"/>
+      <color rgb="00E6B8B7"/>
+      <color rgb="00C5D9F1"/>
+      <color rgb="00CCC0DA"/>
+      <color rgb="00000000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1349,9 +1385,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007-2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1389,7 +1425,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Cambria-Calibri">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1400,7 +1436,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1435,7 +1471,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1461,7 +1497,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007-2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1591,8 +1627,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -1635,18 +1671,65 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AR6"/>
+  <dimension ref="A1:AS6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AK12" sqref="AK12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="44" max="44" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="6.44166666666667" customWidth="1"/>
+    <col min="2" max="2" width="10.775" customWidth="1"/>
+    <col min="3" max="3" width="9.775" customWidth="1"/>
+    <col min="4" max="4" width="10.2166666666667" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="10.4416666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.1083333333333" customWidth="1"/>
+    <col min="8" max="8" width="9.775" customWidth="1"/>
+    <col min="9" max="9" width="11.1083333333333" customWidth="1"/>
+    <col min="10" max="10" width="11.3333333333333" customWidth="1"/>
+    <col min="11" max="11" width="7.44166666666667" customWidth="1"/>
+    <col min="12" max="12" width="9.775" customWidth="1"/>
+    <col min="13" max="13" width="8.775" customWidth="1"/>
+    <col min="14" max="16" width="6.44166666666667" customWidth="1"/>
+    <col min="17" max="17" width="9.66666666666667" customWidth="1"/>
+    <col min="18" max="18" width="7.775" customWidth="1"/>
+    <col min="19" max="19" width="8.10833333333333" customWidth="1"/>
+    <col min="20" max="20" width="9.55833333333333" customWidth="1"/>
+    <col min="21" max="21" width="8.33333333333333" customWidth="1"/>
+    <col min="22" max="22" width="8.88333333333333" customWidth="1"/>
+    <col min="23" max="23" width="8.775" customWidth="1"/>
+    <col min="24" max="24" width="9" customWidth="1"/>
+    <col min="25" max="25" width="9.33333333333333" customWidth="1"/>
+    <col min="26" max="27" width="8.33333333333333" customWidth="1"/>
+    <col min="28" max="28" width="9.55833333333333" customWidth="1"/>
+    <col min="29" max="29" width="8.33333333333333" customWidth="1"/>
+    <col min="30" max="30" width="7.21666666666667" customWidth="1"/>
+    <col min="31" max="31" width="7.775" customWidth="1"/>
+    <col min="32" max="32" width="8.88333333333333" customWidth="1"/>
+    <col min="33" max="33" width="8.21666666666667" customWidth="1"/>
+    <col min="34" max="34" width="9.21666666666667" customWidth="1"/>
+    <col min="35" max="35" width="10" customWidth="1"/>
+    <col min="36" max="36" width="9" customWidth="1"/>
+    <col min="37" max="37" width="9.21666666666667" customWidth="1"/>
+    <col min="38" max="38" width="8.88333333333333" customWidth="1"/>
+    <col min="39" max="39" width="8.775" customWidth="1"/>
+    <col min="40" max="40" width="9" customWidth="1"/>
+    <col min="41" max="41" width="7.88333333333333" customWidth="1"/>
+    <col min="42" max="42" width="7.66666666666667" customWidth="1"/>
+    <col min="43" max="43" width="8.88333333333333" customWidth="1"/>
+    <col min="44" max="44" width="9.44166666666667" customWidth="1"/>
+    <col min="45" max="45" width="6.44166666666667" customWidth="1"/>
+    <col min="48" max="48" width="6" customWidth="1"/>
+    <col min="49" max="49" width="1.775" customWidth="1"/>
+    <col min="50" max="50" width="1.88333333333333" hidden="1" customWidth="1"/>
+    <col min="53" max="56" width="1.44166666666667" customWidth="1"/>
+    <col min="58" max="58" width="1.88333333333333" customWidth="1"/>
+    <col min="59" max="59" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25.5" spans="1:44">
+    <row r="1" ht="25.5" spans="1:45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1693,8 +1776,9 @@
       <c r="AP1" s="1"/>
       <c r="AQ1" s="1"/>
       <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
     </row>
-    <row r="3" spans="1:44">
+    <row r="3" spans="1:45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1734,29 +1818,30 @@
       <c r="Y3" s="19"/>
       <c r="Z3" s="19"/>
       <c r="AA3" s="19"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="24" t="s">
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="28" t="s">
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="25"/>
+      <c r="AR3" s="25"/>
+      <c r="AS3" s="30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:44">
+    <row r="4" spans="1:45">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1824,51 +1909,54 @@
       <c r="AA4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="23" t="s">
+      <c r="AB4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AD4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AE4" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="25" t="s">
+      <c r="AF4" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="24" t="s">
+      <c r="AG4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="26" t="s">
+      <c r="AH4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="26" t="s">
+      <c r="AI4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="24" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="24" t="s">
+      <c r="AK4" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24" t="s">
+      <c r="AL4" s="25" t="s">
         <v>39</v>
       </c>
+      <c r="AM4" s="25"/>
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
       <c r="AP4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="AQ4" s="25" t="s">
+      <c r="AQ4" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="29"/>
+      <c r="AR4" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS4" s="31"/>
     </row>
-    <row r="5" ht="23.25" spans="1:44">
+    <row r="5" ht="23.25" spans="1:45">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1879,10 +1967,10 @@
         <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J5" s="9"/>
       <c r="K5" s="14"/>
@@ -1893,191 +1981,195 @@
         <v>2</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R5" s="17"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
-      <c r="U5" s="18"/>
+      <c r="U5" s="22"/>
       <c r="V5" s="19"/>
       <c r="W5" s="19"/>
       <c r="X5" s="19"/>
       <c r="Y5" s="19"/>
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="27"/>
-      <c r="AI5" s="27"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL5" s="24" t="s">
+      <c r="AB5" s="24"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25" t="s">
         <v>45</v>
       </c>
       <c r="AM5" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="24" t="s">
+      <c r="AN5" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="29"/>
+      <c r="AO5" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="31"/>
     </row>
-    <row r="6" spans="1:44">
+    <row r="6" spans="1:45">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="O6" s="7" t="s">
         <v>62</v>
       </c>
+      <c r="O6" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="P6" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S6" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="U6" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="U6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="W6" s="5" t="s">
+      <c r="V6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="X6" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="Y6" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA6" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB6" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE6" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG6" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="AG6" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="AH6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="AI6" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="AI6" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="AJ6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="AK6" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="AL6" s="5" t="s">
+      <c r="AK6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AM6" s="5" t="s">
+      <c r="AL6" s="7" t="s">
         <v>86</v>
       </c>
+      <c r="AM6" s="7" t="s">
+        <v>87</v>
+      </c>
       <c r="AN6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AO6" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="AP6" s="7" t="s">
+      <c r="AO6" s="5" t="s">
         <v>89</v>
       </c>
+      <c r="AP6" s="5" t="s">
+        <v>90</v>
+      </c>
       <c r="AQ6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="AR6" s="5" t="s">
         <v>91</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AS6" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="A1:AR1"/>
+  <mergeCells count="43">
+    <mergeCell ref="A1:AS1"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="M3:U3"/>
     <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="AC3:AQ3"/>
+    <mergeCell ref="AC3:AR3"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="O4:Q4"/>
-    <mergeCell ref="AK4:AN4"/>
+    <mergeCell ref="AL4:AO4"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:C5"/>
@@ -2108,10 +2200,11 @@
     <mergeCell ref="AH4:AH5"/>
     <mergeCell ref="AI4:AI5"/>
     <mergeCell ref="AJ4:AJ5"/>
-    <mergeCell ref="AO4:AO5"/>
+    <mergeCell ref="AK4:AK5"/>
     <mergeCell ref="AP4:AP5"/>
     <mergeCell ref="AQ4:AQ5"/>
-    <mergeCell ref="AR3:AR5"/>
+    <mergeCell ref="AR4:AR5"/>
+    <mergeCell ref="AS3:AS5"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD4">
@@ -2120,7 +2213,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE4">
       <formula1>"三级,二级,未定级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AO4 AK4:AK5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP4 AL4:AL5">
       <formula1>"有,无"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K5">
@@ -2147,14 +2240,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ4:AJ5">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL4:AL5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM4:AM5">
       <formula1>"本地,异地"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP3:AP5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AQ3:AQ5">
       <formula1>"继续建设,可以暂缓"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
   <headerFooter/>
 </worksheet>
 </file>

--- a/src/main/webapp/static/file/zjTemplate.xlsx
+++ b/src/main/webapp/static/file/zjTemplate.xlsx
@@ -21,15 +21,7 @@
     <t>部门在建政务信息系统调查表</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>序号</t>
-    </r>
+    <t>序号</t>
   </si>
   <si>
     <r>
@@ -85,15 +77,7 @@
     <t>备注</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审批部门</t>
-    </r>
+    <t>审批部门</t>
   </si>
   <si>
     <r>
@@ -515,11 +499,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -565,6 +549,29 @@
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -590,17 +597,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -614,18 +649,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <b/>
@@ -644,44 +681,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -689,21 +688,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
@@ -743,6 +727,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -767,7 +763,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +859,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,67 +871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,54 +893,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -940,9 +937,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -956,6 +951,21 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -985,16 +995,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1002,23 +1012,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,16 +1039,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,8 +1056,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1074,10 +1069,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1086,109 +1081,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1197,26 +1192,26 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1226,91 +1221,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="3" borderId="2" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1674,7 +1681,7 @@
   <dimension ref="A1:AS6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1796,62 +1803,66 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="19" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="W3" s="19"/>
-      <c r="X3" s="19"/>
-      <c r="Y3" s="19"/>
-      <c r="Z3" s="19"/>
-      <c r="AA3" s="19"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="25" t="s">
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="25"/>
-      <c r="AE3" s="25"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="25"/>
-      <c r="AI3" s="25"/>
-      <c r="AJ3" s="25"/>
-      <c r="AK3" s="25"/>
-      <c r="AL3" s="25"/>
-      <c r="AM3" s="25"/>
-      <c r="AN3" s="25"/>
-      <c r="AO3" s="25"/>
-      <c r="AP3" s="25"/>
-      <c r="AQ3" s="25"/>
-      <c r="AR3" s="25"/>
-      <c r="AS3" s="30" t="s">
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29"/>
+      <c r="AL3" s="29"/>
+      <c r="AM3" s="29"/>
+      <c r="AN3" s="29"/>
+      <c r="AO3" s="29"/>
+      <c r="AP3" s="29"/>
+      <c r="AQ3" s="29"/>
+      <c r="AR3" s="29"/>
+      <c r="AS3" s="34" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -1859,110 +1870,118 @@
       </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="20" t="s">
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="U4" s="21" t="s">
+      <c r="U4" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="19" t="s">
+      <c r="Y4" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="Z4" s="19" t="s">
+      <c r="Z4" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AA4" s="19" t="s">
+      <c r="AA4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="AB4" s="24" t="s">
+      <c r="AB4" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="AC4" s="25" t="s">
+      <c r="AC4" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AE4" s="25" t="s">
+      <c r="AE4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AF4" s="26" t="s">
+      <c r="AF4" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AH4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AJ4" s="25" t="s">
+      <c r="AJ4" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AK4" s="28" t="s">
+      <c r="AK4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="AL4" s="25" t="s">
+      <c r="AL4" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AM4" s="25"/>
-      <c r="AN4" s="25"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25" t="s">
+      <c r="AM4" s="29"/>
+      <c r="AN4" s="29"/>
+      <c r="AO4" s="29"/>
+      <c r="AP4" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ4" s="26" t="s">
+      <c r="AQ4" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="AR4" s="26" t="s">
+      <c r="AR4" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="AS4" s="31"/>
+      <c r="AS4" s="35"/>
     </row>
     <row r="5" ht="23.25" spans="1:45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="3"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
       </c>
@@ -1972,191 +1991,191 @@
       <c r="I5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="18"/>
       <c r="L5" s="3"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="11" t="s">
+      <c r="Q5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="25"/>
-      <c r="AD5" s="25"/>
-      <c r="AE5" s="25"/>
-      <c r="AF5" s="25"/>
-      <c r="AG5" s="25"/>
-      <c r="AH5" s="29"/>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="25"/>
-      <c r="AK5" s="25"/>
-      <c r="AL5" s="25" t="s">
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="33"/>
+      <c r="AI5" s="33"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="29"/>
+      <c r="AL5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AM5" s="25" t="s">
+      <c r="AM5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AN5" s="26" t="s">
+      <c r="AN5" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="AO5" s="25" t="s">
+      <c r="AO5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AP5" s="25"/>
-      <c r="AQ5" s="25"/>
-      <c r="AR5" s="25"/>
-      <c r="AS5" s="31"/>
+      <c r="AP5" s="29"/>
+      <c r="AQ5" s="29"/>
+      <c r="AR5" s="29"/>
+      <c r="AS5" s="35"/>
     </row>
     <row r="6" spans="1:45">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="R6" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="S6" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="T6" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="23" t="s">
+      <c r="U6" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="V6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="X6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Z6" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AA6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AB6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AE6" s="7" t="s">
+      <c r="AE6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="AF6" s="7" t="s">
+      <c r="AF6" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="AG6" s="5" t="s">
+      <c r="AG6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AH6" s="5" t="s">
+      <c r="AH6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AI6" s="7" t="s">
+      <c r="AI6" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="AJ6" s="7" t="s">
+      <c r="AJ6" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="AK6" s="5" t="s">
+      <c r="AK6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AL6" s="7" t="s">
+      <c r="AL6" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AM6" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="AN6" s="5" t="s">
+      <c r="AN6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AO6" s="5" t="s">
+      <c r="AO6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AP6" s="5" t="s">
+      <c r="AP6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AQ6" s="7" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="AR6" s="7" t="s">
+      <c r="AR6" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="AS6" s="5" t="s">
+      <c r="AS6" s="9" t="s">
         <v>93</v>
       </c>
     </row>
